--- a/pf/backlog.xlsx
+++ b/pf/backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kris\Documents\Course\2019b\COMP.5210 web app\PF-Auto\pf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\5210 Web App\pf\PF-Auto\pf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBC1F0C-1739-4B84-AE5B-29B780C638BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4895FCCE-4B76-4133-A99D-B780BFA8AC92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AF83FA27-ED7C-4E1B-A3B9-E3AC53E0F9CC}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Product backlog</t>
   </si>
@@ -39,9 +33,6 @@
     <t>Planning</t>
   </si>
   <si>
-    <t>Building</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -85,6 +76,21 @@
   </si>
   <si>
     <t>Visual Design</t>
+  </si>
+  <si>
+    <t>Building backlog</t>
+  </si>
+  <si>
+    <t>Building Progress Log</t>
+  </si>
+  <si>
+    <t>copmlete</t>
+  </si>
+  <si>
+    <t>Time taken</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,23 +122,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -464,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E41C97-984D-4487-827D-BF7B63B85E46}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,277 +518,486 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="3">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <f>SUM(D10:D16)</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>15</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <f>SUM(D17:D22)</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>30</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>30</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>15</v>
-      </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <f>SUM(D23:D28)</f>
         <v>155</v>
       </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",C1)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I28">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="3">
+      <formula>NOT(ISERROR(SEARCH("3",I9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="2">
+      <formula>NOT(ISERROR(SEARCH("2",I9)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pf/backlog.xlsx
+++ b/pf/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\5210 Web App\pf\PF-Auto\pf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4895FCCE-4B76-4133-A99D-B780BFA8AC92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675ABCFA-529D-4E43-9CDB-3869C5BFF67F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{AF83FA27-ED7C-4E1B-A3B9-E3AC53E0F9CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Product backlog</t>
   </si>
@@ -72,9 +72,6 @@
     <t>banner and nav</t>
   </si>
   <si>
-    <t>Responsive design</t>
-  </si>
-  <si>
     <t>Visual Design</t>
   </si>
   <si>
@@ -84,13 +81,13 @@
     <t>Building Progress Log</t>
   </si>
   <si>
-    <t>copmlete</t>
-  </si>
-  <si>
     <t>Time taken</t>
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -106,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -150,32 +153,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -507,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E41C97-984D-4487-827D-BF7B63B85E46}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,14 +521,14 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -567,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -616,7 +601,7 @@
       <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
     </row>
@@ -636,7 +621,7 @@
       <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="3"/>
       <c r="K12" s="1"/>
     </row>
@@ -656,7 +641,7 @@
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="1"/>
     </row>
@@ -676,7 +661,7 @@
       <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="3"/>
       <c r="K14" s="1"/>
     </row>
@@ -696,7 +681,7 @@
       <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
     </row>
@@ -719,7 +704,7 @@
       <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="3"/>
       <c r="K16" s="1"/>
     </row>
@@ -756,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1"/>
       <c r="G18" s="1"/>
@@ -840,7 +825,7 @@
       </c>
       <c r="E22" s="1">
         <f>SUM(D17:D22)</f>
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="2" t="s">
@@ -850,154 +835,16 @@
       <c r="J22" s="3"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>20</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1">
-        <f>SUM(D23:D28)</f>
-        <v>155</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="3">
+  <conditionalFormatting sqref="C1:C1048576 I9:I22">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I28">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",I9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",I9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
